--- a/2020/RESE412/Project_1/data/Info_for_A1.xlsx
+++ b/2020/RESE412/Project_1/data/Info_for_A1.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\uni\2020\RESE412\Project_1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7C9BA6-1BB4-43C3-9CAB-982CDDD14029}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5005FD8B-74F1-4EC8-9ED8-581A04C05849}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{080EDBCD-5D4D-6242-8FE7-5BB5E156F532}"/>
+    <workbookView minimized="1" xWindow="4755" yWindow="2685" windowWidth="21600" windowHeight="11505" xr2:uid="{080EDBCD-5D4D-6242-8FE7-5BB5E156F532}"/>
   </bookViews>
   <sheets>
     <sheet name="Wind" sheetId="1" r:id="rId1"/>
     <sheet name="Cost" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1047,15 +1047,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>128587</xdr:colOff>
+      <xdr:colOff>39845</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>25262</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>509587</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>420845</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>169261</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1382,8 +1382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{224A89CE-089C-1249-AD5A-9DBDE19E22FD}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" zoomScale="161" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1495,7 +1495,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
